--- a/xls_data/2019-4.xlsx
+++ b/xls_data/2019-4.xlsx
@@ -8,17 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="VRKT" sheetId="1" r:id="rId1"/>
-    <sheet name="TSRT" sheetId="2" r:id="rId2"/>
-    <sheet name="KZBG" sheetId="3" r:id="rId3"/>
-    <sheet name="AGMS" sheetId="4" r:id="rId4"/>
-    <sheet name="TBL01" sheetId="5" r:id="rId5"/>
+    <sheet name="KZBG" sheetId="2" r:id="rId2"/>
+    <sheet name="AGMS" sheetId="3" r:id="rId3"/>
+    <sheet name="TBL01" sheetId="4" r:id="rId4"/>
+    <sheet name="TSRT" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="597">
   <si>
     <t>ნივთიერება</t>
   </si>
@@ -590,6 +590,798 @@
     <t>0.82</t>
   </si>
   <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>18.45</t>
+  </si>
+  <si>
+    <t>65.25</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>8.32</t>
+  </si>
+  <si>
+    <t>20.09</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>12.29</t>
+  </si>
+  <si>
+    <t>21.33</t>
+  </si>
+  <si>
+    <t>8.81</t>
+  </si>
+  <si>
+    <t>17.27</t>
+  </si>
+  <si>
+    <t>55.75</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>13.81</t>
+  </si>
+  <si>
+    <t>25.43</t>
+  </si>
+  <si>
+    <t>55.38</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>3.83</t>
+  </si>
+  <si>
+    <t>65.62</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>24.67</t>
+  </si>
+  <si>
+    <t>75.62</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>5.50</t>
+  </si>
+  <si>
+    <t>24.49</t>
+  </si>
+  <si>
+    <t>66.62</t>
+  </si>
+  <si>
+    <t>8.25</t>
+  </si>
+  <si>
+    <t>17.71</t>
+  </si>
+  <si>
+    <t>30.40</t>
+  </si>
+  <si>
+    <t>63.62</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>8.58</t>
+  </si>
+  <si>
+    <t>16.12</t>
+  </si>
+  <si>
+    <t>35.93</t>
+  </si>
+  <si>
+    <t>91.75</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>8.11</t>
+  </si>
+  <si>
+    <t>14.34</t>
+  </si>
+  <si>
+    <t>29.98</t>
+  </si>
+  <si>
+    <t>69.50</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>22.42</t>
+  </si>
+  <si>
+    <t>43.30</t>
+  </si>
+  <si>
+    <t>37.50</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>22.19</t>
+  </si>
+  <si>
+    <t>47.95</t>
+  </si>
+  <si>
+    <t>21.07</t>
+  </si>
+  <si>
+    <t>41.19</t>
+  </si>
+  <si>
+    <t>73.12</t>
+  </si>
+  <si>
+    <t>4.84</t>
+  </si>
+  <si>
+    <t>18.70</t>
+  </si>
+  <si>
+    <t>32.36</t>
+  </si>
+  <si>
+    <t>52.88</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>4.71</t>
+  </si>
+  <si>
+    <t>11.17</t>
+  </si>
+  <si>
+    <t>30.33</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>42.37</t>
+  </si>
+  <si>
+    <t>77.50</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>1.59</t>
+  </si>
+  <si>
+    <t>6.28</t>
+  </si>
+  <si>
+    <t>18.05</t>
+  </si>
+  <si>
+    <t>68.57</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>1.54</t>
+  </si>
+  <si>
+    <t>11.08</t>
+  </si>
+  <si>
+    <t>23.77</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>13.16</t>
+  </si>
+  <si>
+    <t>29.55</t>
+  </si>
+  <si>
+    <t>63.88</t>
+  </si>
+  <si>
+    <t>9.66</t>
+  </si>
+  <si>
+    <t>24.03</t>
+  </si>
+  <si>
+    <t>11.11</t>
+  </si>
+  <si>
+    <t>22.68</t>
+  </si>
+  <si>
+    <t>74.50</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>1.88</t>
+  </si>
+  <si>
+    <t>8.94</t>
+  </si>
+  <si>
+    <t>21.01</t>
+  </si>
+  <si>
+    <t>75.88</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>1.67</t>
+  </si>
+  <si>
+    <t>5.73</t>
+  </si>
+  <si>
+    <t>14.73</t>
+  </si>
+  <si>
+    <t>72.25</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>8.53</t>
+  </si>
+  <si>
+    <t>16.44</t>
+  </si>
+  <si>
+    <t>52.12</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>8.89</t>
+  </si>
+  <si>
+    <t>18.34</t>
+  </si>
+  <si>
+    <t>69.25</t>
+  </si>
+  <si>
+    <t>2.71</t>
+  </si>
+  <si>
+    <t>9.90</t>
+  </si>
+  <si>
+    <t>23.10</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>16.51</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>1.71</t>
+  </si>
+  <si>
+    <t>7.06</t>
+  </si>
+  <si>
+    <t>16.33</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>11.01</t>
+  </si>
+  <si>
+    <t>22.17</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>35.10</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>4.64</t>
+  </si>
+  <si>
+    <t>10.24</t>
+  </si>
+  <si>
+    <t>54.90</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>37.41</t>
+  </si>
+  <si>
+    <t>7.43</t>
+  </si>
+  <si>
+    <t>12.36</t>
+  </si>
+  <si>
+    <t>59.70</t>
+  </si>
+  <si>
+    <t>33.39</t>
+  </si>
+  <si>
+    <t>13.89</t>
+  </si>
+  <si>
+    <t>17.98</t>
+  </si>
+  <si>
+    <t>62.40</t>
+  </si>
+  <si>
+    <t>46.78</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>13.09</t>
+  </si>
+  <si>
+    <t>43.45</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>48.42</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>22.36</t>
+  </si>
+  <si>
+    <t>34.30</t>
+  </si>
+  <si>
+    <t>43.72</t>
+  </si>
+  <si>
+    <t>2.56</t>
+  </si>
+  <si>
+    <t>39.58</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>23.91</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>67.42</t>
+  </si>
+  <si>
+    <t>3.09</t>
+  </si>
+  <si>
+    <t>36.97</t>
+  </si>
+  <si>
+    <t>12.42</t>
+  </si>
+  <si>
+    <t>23.58</t>
+  </si>
+  <si>
+    <t>60.88</t>
+  </si>
+  <si>
+    <t>36.60</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>14.99</t>
+  </si>
+  <si>
+    <t>56.58</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>49.45</t>
+  </si>
+  <si>
+    <t>3.26</t>
+  </si>
+  <si>
+    <t>21.15</t>
+  </si>
+  <si>
+    <t>30.79</t>
+  </si>
+  <si>
+    <t>54.18</t>
+  </si>
+  <si>
+    <t>2.70</t>
+  </si>
+  <si>
+    <t>46.51</t>
+  </si>
+  <si>
+    <t>2.64</t>
+  </si>
+  <si>
+    <t>30.54</t>
+  </si>
+  <si>
+    <t>48.59</t>
+  </si>
+  <si>
+    <t>59.98</t>
+  </si>
+  <si>
+    <t>26.98</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>29.93</t>
+  </si>
+  <si>
+    <t>78.85</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>12.23</t>
+  </si>
+  <si>
+    <t>21.51</t>
+  </si>
+  <si>
+    <t>70.92</t>
+  </si>
+  <si>
+    <t>53.04</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>24.23</t>
+  </si>
+  <si>
+    <t>42.25</t>
+  </si>
+  <si>
+    <t>49.79</t>
+  </si>
+  <si>
+    <t>4.44</t>
+  </si>
+  <si>
+    <t>43.81</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>21.50</t>
+  </si>
+  <si>
+    <t>41.51</t>
+  </si>
+  <si>
+    <t>52.41</t>
+  </si>
+  <si>
+    <t>3.85</t>
+  </si>
+  <si>
+    <t>47.91</t>
+  </si>
+  <si>
+    <t>1.98</t>
+  </si>
+  <si>
+    <t>23.32</t>
+  </si>
+  <si>
+    <t>42.32</t>
+  </si>
+  <si>
+    <t>41.49</t>
+  </si>
+  <si>
+    <t>42.59</t>
+  </si>
+  <si>
+    <t>2.89</t>
+  </si>
+  <si>
+    <t>29.22</t>
+  </si>
+  <si>
+    <t>43.13</t>
+  </si>
+  <si>
+    <t>46.85</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>45.19</t>
+  </si>
+  <si>
+    <t>4.39</t>
+  </si>
+  <si>
+    <t>26.93</t>
+  </si>
+  <si>
+    <t>44.61</t>
+  </si>
+  <si>
+    <t>9.71</t>
+  </si>
+  <si>
+    <t>19.45</t>
+  </si>
+  <si>
+    <t>32.58</t>
+  </si>
+  <si>
+    <t>26.81</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>42.06</t>
+  </si>
+  <si>
+    <t>6.85</t>
+  </si>
+  <si>
+    <t>15.49</t>
+  </si>
+  <si>
+    <t>24.11</t>
+  </si>
+  <si>
+    <t>47.30</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>41.02</t>
+  </si>
+  <si>
+    <t>3.76</t>
+  </si>
+  <si>
+    <t>12.25</t>
+  </si>
+  <si>
+    <t>51.30</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>51.14</t>
+  </si>
+  <si>
+    <t>4.95</t>
+  </si>
+  <si>
+    <t>9.56</t>
+  </si>
+  <si>
+    <t>13.65</t>
+  </si>
+  <si>
+    <t>24.90</t>
+  </si>
+  <si>
+    <t>45.08</t>
+  </si>
+  <si>
+    <t>2.57</t>
+  </si>
+  <si>
+    <t>8.09</t>
+  </si>
+  <si>
+    <t>12.02</t>
+  </si>
+  <si>
+    <t>27.50</t>
+  </si>
+  <si>
+    <t>43.26</t>
+  </si>
+  <si>
+    <t>4.36</t>
+  </si>
+  <si>
+    <t>7.76</t>
+  </si>
+  <si>
+    <t>34.11</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>42.13</t>
+  </si>
+  <si>
+    <t>3.52</t>
+  </si>
+  <si>
+    <t>8.87</t>
+  </si>
+  <si>
+    <t>13.66</t>
+  </si>
+  <si>
+    <t>18.55</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>40.67</t>
+  </si>
+  <si>
+    <t>5.90</t>
+  </si>
+  <si>
+    <t>14.64</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>42.97</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>15.79</t>
+  </si>
+  <si>
+    <t>52.47</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>43.61</t>
+  </si>
+  <si>
+    <t>3.81</t>
+  </si>
+  <si>
+    <t>3.57</t>
+  </si>
+  <si>
+    <t>8.18</t>
+  </si>
+  <si>
+    <t>45.40</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>44.52</t>
+  </si>
+  <si>
+    <t>5.88</t>
+  </si>
+  <si>
+    <t>5.27</t>
+  </si>
+  <si>
+    <t>9.05</t>
+  </si>
+  <si>
+    <t>32.46</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>44.08</t>
+  </si>
+  <si>
+    <t>4.68</t>
+  </si>
+  <si>
+    <t>17.54</t>
+  </si>
+  <si>
+    <t>24.82</t>
+  </si>
+  <si>
+    <t>15.82</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
     <t>48.17</t>
   </si>
   <si>
@@ -638,9 +1430,6 @@
     <t>49.75</t>
   </si>
   <si>
-    <t>1.20</t>
-  </si>
-  <si>
     <t>62.30</t>
   </si>
   <si>
@@ -698,9 +1487,6 @@
     <t>60.25</t>
   </si>
   <si>
-    <t>0.85</t>
-  </si>
-  <si>
     <t>61.67</t>
   </si>
   <si>
@@ -716,9 +1502,6 @@
     <t>69.62</t>
   </si>
   <si>
-    <t>1.30</t>
-  </si>
-  <si>
     <t>77.25</t>
   </si>
   <si>
@@ -917,21 +1700,12 @@
     <t>63.29</t>
   </si>
   <si>
-    <t>21.50</t>
-  </si>
-  <si>
-    <t>25.43</t>
-  </si>
-  <si>
     <t>54.86</t>
   </si>
   <si>
     <t>39.88</t>
   </si>
   <si>
-    <t>0.86</t>
-  </si>
-  <si>
     <t>57.46</t>
   </si>
   <si>
@@ -953,9 +1727,6 @@
     <t>21.32</t>
   </si>
   <si>
-    <t>24.67</t>
-  </si>
-  <si>
     <t>36.75</t>
   </si>
   <si>
@@ -998,9 +1769,6 @@
     <t>62.12</t>
   </si>
   <si>
-    <t>21.33</t>
-  </si>
-  <si>
     <t>14.50</t>
   </si>
   <si>
@@ -1080,825 +1848,6 @@
   </si>
   <si>
     <t>29.88</t>
-  </si>
-  <si>
-    <t>23.83</t>
-  </si>
-  <si>
-    <t>2.08</t>
-  </si>
-  <si>
-    <t>18.45</t>
-  </si>
-  <si>
-    <t>65.25</t>
-  </si>
-  <si>
-    <t>32.25</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>8.32</t>
-  </si>
-  <si>
-    <t>20.09</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>28.46</t>
-  </si>
-  <si>
-    <t>2.17</t>
-  </si>
-  <si>
-    <t>12.29</t>
-  </si>
-  <si>
-    <t>40.38</t>
-  </si>
-  <si>
-    <t>8.81</t>
-  </si>
-  <si>
-    <t>17.27</t>
-  </si>
-  <si>
-    <t>55.75</t>
-  </si>
-  <si>
-    <t>51.04</t>
-  </si>
-  <si>
-    <t>2.13</t>
-  </si>
-  <si>
-    <t>13.81</t>
-  </si>
-  <si>
-    <t>55.38</t>
-  </si>
-  <si>
-    <t>33.42</t>
-  </si>
-  <si>
-    <t>3.83</t>
-  </si>
-  <si>
-    <t>65.62</t>
-  </si>
-  <si>
-    <t>28.67</t>
-  </si>
-  <si>
-    <t>2.38</t>
-  </si>
-  <si>
-    <t>75.62</t>
-  </si>
-  <si>
-    <t>39.08</t>
-  </si>
-  <si>
-    <t>5.50</t>
-  </si>
-  <si>
-    <t>24.49</t>
-  </si>
-  <si>
-    <t>66.62</t>
-  </si>
-  <si>
-    <t>48.62</t>
-  </si>
-  <si>
-    <t>8.25</t>
-  </si>
-  <si>
-    <t>17.71</t>
-  </si>
-  <si>
-    <t>30.40</t>
-  </si>
-  <si>
-    <t>63.62</t>
-  </si>
-  <si>
-    <t>8.58</t>
-  </si>
-  <si>
-    <t>16.12</t>
-  </si>
-  <si>
-    <t>35.93</t>
-  </si>
-  <si>
-    <t>91.75</t>
-  </si>
-  <si>
-    <t>42.91</t>
-  </si>
-  <si>
-    <t>8.11</t>
-  </si>
-  <si>
-    <t>14.34</t>
-  </si>
-  <si>
-    <t>29.98</t>
-  </si>
-  <si>
-    <t>69.50</t>
-  </si>
-  <si>
-    <t>60.46</t>
-  </si>
-  <si>
-    <t>22.42</t>
-  </si>
-  <si>
-    <t>43.30</t>
-  </si>
-  <si>
-    <t>37.50</t>
-  </si>
-  <si>
-    <t>30.67</t>
-  </si>
-  <si>
-    <t>22.19</t>
-  </si>
-  <si>
-    <t>47.95</t>
-  </si>
-  <si>
-    <t>30.38</t>
-  </si>
-  <si>
-    <t>21.07</t>
-  </si>
-  <si>
-    <t>41.19</t>
-  </si>
-  <si>
-    <t>73.12</t>
-  </si>
-  <si>
-    <t>37.17</t>
-  </si>
-  <si>
-    <t>4.84</t>
-  </si>
-  <si>
-    <t>18.70</t>
-  </si>
-  <si>
-    <t>32.36</t>
-  </si>
-  <si>
-    <t>52.88</t>
-  </si>
-  <si>
-    <t>15.67</t>
-  </si>
-  <si>
-    <t>4.71</t>
-  </si>
-  <si>
-    <t>11.17</t>
-  </si>
-  <si>
-    <t>30.33</t>
-  </si>
-  <si>
-    <t>19.08</t>
-  </si>
-  <si>
-    <t>42.37</t>
-  </si>
-  <si>
-    <t>77.50</t>
-  </si>
-  <si>
-    <t>28.50</t>
-  </si>
-  <si>
-    <t>1.59</t>
-  </si>
-  <si>
-    <t>6.28</t>
-  </si>
-  <si>
-    <t>18.05</t>
-  </si>
-  <si>
-    <t>68.57</t>
-  </si>
-  <si>
-    <t>30.17</t>
-  </si>
-  <si>
-    <t>1.54</t>
-  </si>
-  <si>
-    <t>11.08</t>
-  </si>
-  <si>
-    <t>23.77</t>
-  </si>
-  <si>
-    <t>2.21</t>
-  </si>
-  <si>
-    <t>13.16</t>
-  </si>
-  <si>
-    <t>29.55</t>
-  </si>
-  <si>
-    <t>63.88</t>
-  </si>
-  <si>
-    <t>21.58</t>
-  </si>
-  <si>
-    <t>9.66</t>
-  </si>
-  <si>
-    <t>24.03</t>
-  </si>
-  <si>
-    <t>23.54</t>
-  </si>
-  <si>
-    <t>11.11</t>
-  </si>
-  <si>
-    <t>22.68</t>
-  </si>
-  <si>
-    <t>74.50</t>
-  </si>
-  <si>
-    <t>1.88</t>
-  </si>
-  <si>
-    <t>8.94</t>
-  </si>
-  <si>
-    <t>21.01</t>
-  </si>
-  <si>
-    <t>75.88</t>
-  </si>
-  <si>
-    <t>26.29</t>
-  </si>
-  <si>
-    <t>1.67</t>
-  </si>
-  <si>
-    <t>5.73</t>
-  </si>
-  <si>
-    <t>14.73</t>
-  </si>
-  <si>
-    <t>72.25</t>
-  </si>
-  <si>
-    <t>26.35</t>
-  </si>
-  <si>
-    <t>1.65</t>
-  </si>
-  <si>
-    <t>8.53</t>
-  </si>
-  <si>
-    <t>16.44</t>
-  </si>
-  <si>
-    <t>52.12</t>
-  </si>
-  <si>
-    <t>31.71</t>
-  </si>
-  <si>
-    <t>2.33</t>
-  </si>
-  <si>
-    <t>8.89</t>
-  </si>
-  <si>
-    <t>18.34</t>
-  </si>
-  <si>
-    <t>69.25</t>
-  </si>
-  <si>
-    <t>21.96</t>
-  </si>
-  <si>
-    <t>2.71</t>
-  </si>
-  <si>
-    <t>9.90</t>
-  </si>
-  <si>
-    <t>23.10</t>
-  </si>
-  <si>
-    <t>23.79</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>16.51</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>29.67</t>
-  </si>
-  <si>
-    <t>1.71</t>
-  </si>
-  <si>
-    <t>7.06</t>
-  </si>
-  <si>
-    <t>16.33</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>34.88</t>
-  </si>
-  <si>
-    <t>1.83</t>
-  </si>
-  <si>
-    <t>11.01</t>
-  </si>
-  <si>
-    <t>22.17</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>35.10</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>4.64</t>
-  </si>
-  <si>
-    <t>10.24</t>
-  </si>
-  <si>
-    <t>54.90</t>
-  </si>
-  <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>37.41</t>
-  </si>
-  <si>
-    <t>7.43</t>
-  </si>
-  <si>
-    <t>12.36</t>
-  </si>
-  <si>
-    <t>59.70</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>33.39</t>
-  </si>
-  <si>
-    <t>13.89</t>
-  </si>
-  <si>
-    <t>17.98</t>
-  </si>
-  <si>
-    <t>62.40</t>
-  </si>
-  <si>
-    <t>46.78</t>
-  </si>
-  <si>
-    <t>0.44</t>
-  </si>
-  <si>
-    <t>13.09</t>
-  </si>
-  <si>
-    <t>43.45</t>
-  </si>
-  <si>
-    <t>1.68</t>
-  </si>
-  <si>
-    <t>48.42</t>
-  </si>
-  <si>
-    <t>0.39</t>
-  </si>
-  <si>
-    <t>22.36</t>
-  </si>
-  <si>
-    <t>34.30</t>
-  </si>
-  <si>
-    <t>43.72</t>
-  </si>
-  <si>
-    <t>2.56</t>
-  </si>
-  <si>
-    <t>39.58</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>23.91</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>67.42</t>
-  </si>
-  <si>
-    <t>3.09</t>
-  </si>
-  <si>
-    <t>36.97</t>
-  </si>
-  <si>
-    <t>12.42</t>
-  </si>
-  <si>
-    <t>23.58</t>
-  </si>
-  <si>
-    <t>60.88</t>
-  </si>
-  <si>
-    <t>36.60</t>
-  </si>
-  <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>14.99</t>
-  </si>
-  <si>
-    <t>56.58</t>
-  </si>
-  <si>
-    <t>2.36</t>
-  </si>
-  <si>
-    <t>49.45</t>
-  </si>
-  <si>
-    <t>3.26</t>
-  </si>
-  <si>
-    <t>21.15</t>
-  </si>
-  <si>
-    <t>30.79</t>
-  </si>
-  <si>
-    <t>54.18</t>
-  </si>
-  <si>
-    <t>2.70</t>
-  </si>
-  <si>
-    <t>46.51</t>
-  </si>
-  <si>
-    <t>2.64</t>
-  </si>
-  <si>
-    <t>30.54</t>
-  </si>
-  <si>
-    <t>48.59</t>
-  </si>
-  <si>
-    <t>59.98</t>
-  </si>
-  <si>
-    <t>26.98</t>
-  </si>
-  <si>
-    <t>17.00</t>
-  </si>
-  <si>
-    <t>29.93</t>
-  </si>
-  <si>
-    <t>78.85</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>12.23</t>
-  </si>
-  <si>
-    <t>21.51</t>
-  </si>
-  <si>
-    <t>70.92</t>
-  </si>
-  <si>
-    <t>53.04</t>
-  </si>
-  <si>
-    <t>2.19</t>
-  </si>
-  <si>
-    <t>24.23</t>
-  </si>
-  <si>
-    <t>42.25</t>
-  </si>
-  <si>
-    <t>49.79</t>
-  </si>
-  <si>
-    <t>4.44</t>
-  </si>
-  <si>
-    <t>43.81</t>
-  </si>
-  <si>
-    <t>0.98</t>
-  </si>
-  <si>
-    <t>41.51</t>
-  </si>
-  <si>
-    <t>52.41</t>
-  </si>
-  <si>
-    <t>3.85</t>
-  </si>
-  <si>
-    <t>47.91</t>
-  </si>
-  <si>
-    <t>1.98</t>
-  </si>
-  <si>
-    <t>23.32</t>
-  </si>
-  <si>
-    <t>42.32</t>
-  </si>
-  <si>
-    <t>41.49</t>
-  </si>
-  <si>
-    <t>42.59</t>
-  </si>
-  <si>
-    <t>2.89</t>
-  </si>
-  <si>
-    <t>29.22</t>
-  </si>
-  <si>
-    <t>43.13</t>
-  </si>
-  <si>
-    <t>46.85</t>
-  </si>
-  <si>
-    <t>2.48</t>
-  </si>
-  <si>
-    <t>45.19</t>
-  </si>
-  <si>
-    <t>4.39</t>
-  </si>
-  <si>
-    <t>26.93</t>
-  </si>
-  <si>
-    <t>44.61</t>
-  </si>
-  <si>
-    <t>9.71</t>
-  </si>
-  <si>
-    <t>19.45</t>
-  </si>
-  <si>
-    <t>32.58</t>
-  </si>
-  <si>
-    <t>26.81</t>
-  </si>
-  <si>
-    <t>1.35</t>
-  </si>
-  <si>
-    <t>42.06</t>
-  </si>
-  <si>
-    <t>6.85</t>
-  </si>
-  <si>
-    <t>15.49</t>
-  </si>
-  <si>
-    <t>24.11</t>
-  </si>
-  <si>
-    <t>47.30</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>41.02</t>
-  </si>
-  <si>
-    <t>3.76</t>
-  </si>
-  <si>
-    <t>12.25</t>
-  </si>
-  <si>
-    <t>51.30</t>
-  </si>
-  <si>
-    <t>51.14</t>
-  </si>
-  <si>
-    <t>4.95</t>
-  </si>
-  <si>
-    <t>9.56</t>
-  </si>
-  <si>
-    <t>13.65</t>
-  </si>
-  <si>
-    <t>24.90</t>
-  </si>
-  <si>
-    <t>45.08</t>
-  </si>
-  <si>
-    <t>2.57</t>
-  </si>
-  <si>
-    <t>8.09</t>
-  </si>
-  <si>
-    <t>12.02</t>
-  </si>
-  <si>
-    <t>27.50</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>43.26</t>
-  </si>
-  <si>
-    <t>4.36</t>
-  </si>
-  <si>
-    <t>7.76</t>
-  </si>
-  <si>
-    <t>34.11</t>
-  </si>
-  <si>
-    <t>0.89</t>
-  </si>
-  <si>
-    <t>42.13</t>
-  </si>
-  <si>
-    <t>3.52</t>
-  </si>
-  <si>
-    <t>8.87</t>
-  </si>
-  <si>
-    <t>13.66</t>
-  </si>
-  <si>
-    <t>18.55</t>
-  </si>
-  <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>40.67</t>
-  </si>
-  <si>
-    <t>5.90</t>
-  </si>
-  <si>
-    <t>14.64</t>
-  </si>
-  <si>
-    <t>42.97</t>
-  </si>
-  <si>
-    <t>2.60</t>
-  </si>
-  <si>
-    <t>15.79</t>
-  </si>
-  <si>
-    <t>52.47</t>
-  </si>
-  <si>
-    <t>0.81</t>
-  </si>
-  <si>
-    <t>43.61</t>
-  </si>
-  <si>
-    <t>3.81</t>
-  </si>
-  <si>
-    <t>3.57</t>
-  </si>
-  <si>
-    <t>8.18</t>
-  </si>
-  <si>
-    <t>45.40</t>
-  </si>
-  <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>44.52</t>
-  </si>
-  <si>
-    <t>5.88</t>
-  </si>
-  <si>
-    <t>5.27</t>
-  </si>
-  <si>
-    <t>9.05</t>
-  </si>
-  <si>
-    <t>32.46</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>44.08</t>
-  </si>
-  <si>
-    <t>4.68</t>
-  </si>
-  <si>
-    <t>17.54</t>
-  </si>
-  <si>
-    <t>24.82</t>
-  </si>
-  <si>
-    <t>15.82</t>
-  </si>
-  <si>
-    <t>1.03</t>
   </si>
 </sst>
 </file>
@@ -2985,758 +2934,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="8" width="14.7109375" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3774,22 +2971,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>341</v>
+        <v>170</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>342</v>
+        <v>177</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>343</v>
+        <v>178</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>344</v>
+        <v>179</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3797,22 +2994,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>345</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>346</v>
+        <v>180</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>348</v>
+        <v>182</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>349</v>
+        <v>183</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3820,22 +3017,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>351</v>
+        <v>184</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>352</v>
+        <v>185</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>313</v>
+        <v>186</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3843,22 +3040,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>353</v>
+        <v>170</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>354</v>
+        <v>187</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>355</v>
+        <v>188</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>356</v>
+        <v>189</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3866,22 +3063,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>357</v>
+        <v>170</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>358</v>
+        <v>191</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>359</v>
+        <v>192</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>287</v>
+        <v>193</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>360</v>
+        <v>194</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3889,10 +3086,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>361</v>
+        <v>170</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>362</v>
+        <v>196</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>170</v>
@@ -3901,10 +3098,10 @@
         <v>170</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>363</v>
+        <v>197</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3912,22 +3109,22 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>364</v>
+        <v>170</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>365</v>
+        <v>199</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>298</v>
+        <v>200</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>366</v>
+        <v>201</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3935,22 +3132,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>367</v>
+        <v>170</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>368</v>
+        <v>203</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>369</v>
+        <v>204</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>370</v>
+        <v>205</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>170</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3958,22 +3155,22 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>371</v>
+        <v>170</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>372</v>
+        <v>206</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>373</v>
+        <v>207</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>374</v>
+        <v>208</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>375</v>
+        <v>209</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3981,22 +3178,22 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>376</v>
+        <v>211</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>377</v>
+        <v>212</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>378</v>
+        <v>213</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>379</v>
+        <v>214</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4004,22 +3201,22 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>380</v>
+        <v>170</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>381</v>
+        <v>216</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>382</v>
+        <v>217</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>383</v>
+        <v>218</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>384</v>
+        <v>219</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4027,22 +3224,22 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>385</v>
+        <v>170</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>386</v>
+        <v>221</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>387</v>
+        <v>222</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>388</v>
+        <v>223</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4050,22 +3247,22 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>389</v>
+        <v>170</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>390</v>
+        <v>225</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>391</v>
+        <v>226</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>170</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4073,22 +3270,22 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>392</v>
+        <v>170</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>393</v>
+        <v>227</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>394</v>
+        <v>228</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>395</v>
+        <v>229</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4096,22 +3293,22 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>396</v>
+        <v>170</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>397</v>
+        <v>230</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>398</v>
+        <v>231</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>399</v>
+        <v>232</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>400</v>
+        <v>233</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4119,22 +3316,22 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>401</v>
+        <v>170</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>402</v>
+        <v>235</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>403</v>
+        <v>236</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>404</v>
+        <v>237</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>170</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4142,7 +3339,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>405</v>
+        <v>170</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>137</v>
@@ -4151,13 +3348,13 @@
         <v>128</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>406</v>
+        <v>239</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>407</v>
+        <v>240</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4165,22 +3362,22 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>408</v>
+        <v>170</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>409</v>
+        <v>242</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>410</v>
+        <v>243</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>411</v>
+        <v>244</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>412</v>
+        <v>245</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>170</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4188,22 +3385,22 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>413</v>
+        <v>170</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>414</v>
+        <v>247</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>415</v>
+        <v>248</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>416</v>
+        <v>249</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4211,22 +3408,22 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>245</v>
+        <v>170</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>417</v>
+        <v>250</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>418</v>
+        <v>251</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>419</v>
+        <v>252</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>420</v>
+        <v>253</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>170</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4234,22 +3431,22 @@
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>421</v>
+        <v>170</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>351</v>
+        <v>184</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>422</v>
+        <v>254</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>423</v>
+        <v>255</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>125</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>170</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4257,22 +3454,22 @@
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>424</v>
+        <v>170</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>417</v>
+        <v>250</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>425</v>
+        <v>256</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>426</v>
+        <v>257</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>427</v>
+        <v>258</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>170</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4280,22 +3477,22 @@
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>276</v>
+        <v>170</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>428</v>
+        <v>260</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>429</v>
+        <v>261</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>430</v>
+        <v>262</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>431</v>
+        <v>263</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>170</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4303,22 +3500,22 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>432</v>
+        <v>170</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>433</v>
+        <v>265</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>434</v>
+        <v>266</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>435</v>
+        <v>267</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>436</v>
+        <v>268</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4326,22 +3523,22 @@
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>437</v>
+        <v>170</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>438</v>
+        <v>269</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>439</v>
+        <v>270</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>440</v>
+        <v>271</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>170</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4349,22 +3546,22 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>442</v>
+        <v>170</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>443</v>
+        <v>273</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>444</v>
+        <v>274</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>445</v>
+        <v>275</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>446</v>
+        <v>276</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4372,22 +3569,22 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>447</v>
+        <v>170</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>448</v>
+        <v>277</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>449</v>
+        <v>278</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>450</v>
+        <v>279</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>156</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4395,22 +3592,22 @@
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>451</v>
+        <v>170</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>452</v>
+        <v>280</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>453</v>
+        <v>281</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>454</v>
+        <v>282</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>170</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4418,22 +3615,22 @@
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>455</v>
+        <v>170</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>456</v>
+        <v>283</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>457</v>
+        <v>284</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>458</v>
+        <v>285</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>459</v>
+        <v>286</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4441,22 +3638,22 @@
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>460</v>
+        <v>170</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>461</v>
+        <v>287</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>462</v>
+        <v>288</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>463</v>
+        <v>289</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>464</v>
+        <v>290</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4464,7 +3661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -4503,7 +3700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H30"/>
   <sheetViews>
@@ -4542,22 +3739,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>465</v>
+        <v>291</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>466</v>
+        <v>292</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>467</v>
+        <v>293</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>468</v>
+        <v>294</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>469</v>
+        <v>295</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>470</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4565,22 +3762,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>471</v>
+        <v>297</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>472</v>
+        <v>298</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>473</v>
+        <v>299</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>474</v>
+        <v>300</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>475</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4588,19 +3785,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>476</v>
+        <v>301</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>477</v>
+        <v>302</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>478</v>
+        <v>303</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>479</v>
+        <v>304</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>172</v>
@@ -4611,22 +3808,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>480</v>
+        <v>305</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>481</v>
+        <v>306</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>354</v>
+        <v>187</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>482</v>
+        <v>307</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>483</v>
+        <v>308</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>484</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4634,22 +3831,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>485</v>
+        <v>310</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>486</v>
+        <v>311</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>487</v>
+        <v>312</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>488</v>
+        <v>313</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>489</v>
+        <v>314</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>490</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4657,22 +3854,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>491</v>
+        <v>316</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>492</v>
+        <v>317</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>493</v>
+        <v>318</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>494</v>
+        <v>319</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>495</v>
+        <v>320</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>496</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4680,22 +3877,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>497</v>
+        <v>322</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>498</v>
+        <v>323</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>499</v>
+        <v>324</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>500</v>
+        <v>325</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>417</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4703,22 +3900,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>501</v>
+        <v>326</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>502</v>
+        <v>327</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>503</v>
+        <v>328</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>504</v>
+        <v>329</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>505</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4726,22 +3923,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>506</v>
+        <v>331</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>507</v>
+        <v>332</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>508</v>
+        <v>333</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>509</v>
+        <v>334</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>510</v>
+        <v>335</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>511</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4749,19 +3946,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>512</v>
+        <v>337</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>513</v>
+        <v>338</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>514</v>
+        <v>339</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>515</v>
+        <v>340</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>516</v>
+        <v>341</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>151</v>
@@ -4772,22 +3969,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>517</v>
+        <v>342</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>518</v>
+        <v>343</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>519</v>
+        <v>344</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>520</v>
+        <v>345</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>290</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4795,19 +3992,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>521</v>
+        <v>346</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>522</v>
+        <v>347</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>523</v>
+        <v>348</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>524</v>
+        <v>349</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>137</v>
@@ -4818,22 +4015,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>525</v>
+        <v>350</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>526</v>
+        <v>351</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>527</v>
+        <v>352</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>528</v>
+        <v>353</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>529</v>
+        <v>354</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>530</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4841,22 +4038,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>531</v>
+        <v>356</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>532</v>
+        <v>357</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>286</v>
+        <v>358</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>533</v>
+        <v>359</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>534</v>
+        <v>360</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>535</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4864,22 +4061,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>536</v>
+        <v>362</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>537</v>
+        <v>363</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>538</v>
+        <v>364</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>539</v>
+        <v>365</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>540</v>
+        <v>366</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>438</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4887,22 +4084,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>541</v>
+        <v>367</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>542</v>
+        <v>368</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>543</v>
+        <v>369</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>544</v>
+        <v>370</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>545</v>
+        <v>371</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>546</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4910,10 +4107,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>547</v>
+        <v>373</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>548</v>
+        <v>374</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>170</v>
@@ -4922,7 +4119,7 @@
         <v>170</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>549</v>
+        <v>375</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>30</v>
@@ -4933,22 +4130,22 @@
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>550</v>
+        <v>376</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>551</v>
+        <v>377</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>552</v>
+        <v>378</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>553</v>
+        <v>379</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>554</v>
+        <v>380</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>555</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4956,22 +4153,22 @@
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>556</v>
+        <v>382</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>557</v>
+        <v>383</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>558</v>
+        <v>384</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>559</v>
+        <v>385</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>560</v>
+        <v>386</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>561</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4979,22 +4176,22 @@
         <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>562</v>
+        <v>388</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>563</v>
+        <v>389</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>564</v>
+        <v>390</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>565</v>
+        <v>391</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>219</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5002,19 +4199,19 @@
         <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>566</v>
+        <v>393</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>567</v>
+        <v>394</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>568</v>
+        <v>395</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>569</v>
+        <v>396</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>570</v>
+        <v>397</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>71</v>
@@ -5025,22 +4222,22 @@
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>571</v>
+        <v>398</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>572</v>
+        <v>399</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>573</v>
+        <v>400</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>574</v>
+        <v>401</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>575</v>
+        <v>402</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>576</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5048,22 +4245,22 @@
         <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>577</v>
+        <v>403</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>513</v>
+        <v>338</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>578</v>
+        <v>404</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>579</v>
+        <v>405</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>580</v>
+        <v>406</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>581</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5071,22 +4268,22 @@
         <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>582</v>
+        <v>408</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>583</v>
+        <v>409</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>584</v>
+        <v>410</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>585</v>
+        <v>411</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>586</v>
+        <v>412</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>587</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5094,22 +4291,22 @@
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>588</v>
+        <v>414</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>589</v>
+        <v>415</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>590</v>
+        <v>416</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>538</v>
+        <v>364</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>193</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5117,22 +4314,22 @@
         <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>591</v>
+        <v>418</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>592</v>
+        <v>419</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>593</v>
+        <v>420</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>594</v>
+        <v>421</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>595</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5140,22 +4337,22 @@
         <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>596</v>
+        <v>423</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>597</v>
+        <v>424</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>598</v>
+        <v>425</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>599</v>
+        <v>426</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>600</v>
+        <v>427</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>601</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -5163,22 +4360,22 @@
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>602</v>
+        <v>429</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>603</v>
+        <v>430</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>604</v>
+        <v>431</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>605</v>
+        <v>432</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>606</v>
+        <v>433</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>607</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5186,22 +4383,774 @@
         <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>608</v>
+        <v>435</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>609</v>
+        <v>436</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>610</v>
+        <v>437</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>611</v>
+        <v>438</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>612</v>
+        <v>439</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>613</v>
+        <v>440</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="8" width="14.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
